--- a/tests/casosDePruebaYReporteDeDefectos.xlsx
+++ b/tests/casosDePruebaYReporteDeDefectos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TECH-DEVELOPER\TRACK2_ESPECIALIZACION_FRONT\ProyectoFinal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TECH-DEVELOPER\TRACK2_ESPECIALIZACION_FRONT\ProyectoFinal\digital-money\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B7510B-1773-4A01-9227-617674728FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0BEBABD-3169-4428-A242-5A1010BC9C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="19440" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="145">
   <si>
     <t>Título</t>
   </si>
@@ -221,9 +221,6 @@
   </si>
   <si>
     <t>El usuario debe tener una cuenta creada.</t>
-  </si>
-  <si>
-    <t>Regresión</t>
   </si>
   <si>
     <t>Validar contraseña</t>
@@ -343,7 +340,140 @@
     <t>El sistema muestra un mensaje que indica que se ha alcanzado el límite máximo de tarjetas.</t>
   </si>
   <si>
-    <t>Regresión.</t>
+    <t>Ingreso de dinero desde tarjeta de débito/crédito</t>
+  </si>
+  <si>
+    <t>Verificar que el usuario puede ingresar dinero desde una tarjeta de débito/crédito</t>
+  </si>
+  <si>
+    <t>El usuario debe tener una tarjeta asociada a su cuenta.</t>
+  </si>
+  <si>
+    <t>Tarjeta válida, monto a cargar de $100.00</t>
+  </si>
+  <si>
+    <t>Se muestra un resumen de la transacción con éxito y se carga el monto en la cuenta.</t>
+  </si>
+  <si>
+    <t>Se muestra el resumen correctamente.</t>
+  </si>
+  <si>
+    <t>TC-010</t>
+  </si>
+  <si>
+    <t>1_Ingresar a la página de ingreso de dinero.
+2_Seleccionar tarjeta de débito/crédito.
+3_Ingresar monto a cargar.
+4_Confirmar el pago.</t>
+  </si>
+  <si>
+    <t>TC-011</t>
+  </si>
+  <si>
+    <t>Visualización de actividad</t>
+  </si>
+  <si>
+    <t>Verificar que el usuario puede ver todas las transacciones de su cuenta, desde la más reciente hasta la más antigua</t>
+  </si>
+  <si>
+    <t>El usuario debe estar registrado e iniciar sesión.</t>
+  </si>
+  <si>
+    <t>1_Ingresar a la página de actividad.
+2_Verificar que las transacciones se muestren de forma paginada, con 10 transacciones por página.</t>
+  </si>
+  <si>
+    <t>Usuario registrado, historial de transacciones.</t>
+  </si>
+  <si>
+    <t>Se muestran las transacciones correctamente, de la más reciente a la más antigua.</t>
+  </si>
+  <si>
+    <t>Las transacciones se muestran correctamente.</t>
+  </si>
+  <si>
+    <t>Filtrado de actividad por período</t>
+  </si>
+  <si>
+    <t>TC-012</t>
+  </si>
+  <si>
+    <t>Verificar que el usuario pueda filtrar las transacciones por periodo: hoy, ayer, última semana, últimos 15 días, último mes</t>
+  </si>
+  <si>
+    <t>El usuario debe tener transacciones realizadas en diferentes periodos.</t>
+  </si>
+  <si>
+    <t>1_Ingresar a la página de actividad.
+2_Aplicar el filtro de período.
+3_Verificar que las transacciones se actualicen según el periodo seleccionado.</t>
+  </si>
+  <si>
+    <t>Usuario con transacciones en diferentes periodos.</t>
+  </si>
+  <si>
+    <t>Las transacciones se filtran correctamente por periodo.</t>
+  </si>
+  <si>
+    <t>Las transacciones se filtran correctamente.</t>
+  </si>
+  <si>
+    <t>TC-013</t>
+  </si>
+  <si>
+    <t>Detalle de transacción</t>
+  </si>
+  <si>
+    <t>TC-014</t>
+  </si>
+  <si>
+    <t>Redirigir al login tras sesión expirada</t>
+  </si>
+  <si>
+    <t>Verificar que el usuario pueda ver el detalle de cada transacción realizada, con datos como número de operación, fecha, monto y destino</t>
+  </si>
+  <si>
+    <t>Verificar que el sistema redirige al login si la sesión expira</t>
+  </si>
+  <si>
+    <t>El usuario debe haber realizado transacciones previamente.</t>
+  </si>
+  <si>
+    <t>1_Ingresar a la página de actividad.
+2_Hacer clic en una transacción.
+3_Verificar que se muestren los detalles completos de la transacción.</t>
+  </si>
+  <si>
+    <t>Usuario con historial de transacciones.</t>
+  </si>
+  <si>
+    <t>Se muestran todos los detalles correctos de la transacción seleccionada.</t>
+  </si>
+  <si>
+    <t>Los detalles de la transacción se muestran correctamente.</t>
+  </si>
+  <si>
+    <t>El usuario debe haber iniciado sesión previamente.</t>
+  </si>
+  <si>
+    <t>1_Iniciar sesión.
+2_Esperar hasta que la sesión expire.
+3_Verificar que se redirige al login.</t>
+  </si>
+  <si>
+    <t>Email y contraseña válidos.</t>
+  </si>
+  <si>
+    <t>El usuario es redirigido al login después de que la sesión expire.</t>
+  </si>
+  <si>
+    <t>Redirección correcta al login.</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Regression.</t>
   </si>
 </sst>
 </file>
@@ -464,7 +594,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -483,7 +613,16 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -491,20 +630,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -788,10 +924,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,19 +946,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -863,124 +999,124 @@
       <c r="A3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="7"/>
+      <c r="J3" s="9"/>
       <c r="K3" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
       <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
       <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="9" t="s">
         <v>50</v>
       </c>
       <c r="K8" s="10" t="s">
@@ -989,47 +1125,47 @@
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
       <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
       <c r="E10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
       <c r="K10" s="10"/>
     </row>
     <row r="11" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
       <c r="K11" s="10"/>
     </row>
     <row r="12" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.25">
@@ -1095,132 +1231,132 @@
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="H14" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>50</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="13" t="s">
+      <c r="D15" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="E15" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="F15" s="13" t="s">
+      <c r="G15" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G15" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>85</v>
+      <c r="H15" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>50</v>
       </c>
       <c r="J15" s="3"/>
-      <c r="K15" s="14" t="s">
-        <v>81</v>
+      <c r="K15" s="8" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="G16" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F16" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G16" s="13" t="s">
+      <c r="H16" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>50</v>
       </c>
       <c r="J16" s="3"/>
-      <c r="K16" s="14" t="s">
-        <v>104</v>
+      <c r="K16" s="8" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="63" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="E17" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="F17" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="G17" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="H17" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>95</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>50</v>
@@ -1230,44 +1366,204 @@
     </row>
     <row r="18" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="13" t="s">
+      <c r="D18" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="E18" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="F18" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="G18" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="H18" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>103</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>50</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3" t="s">
-        <v>65</v>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="15" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="H3:H7"/>
     <mergeCell ref="J3:J7"/>
     <mergeCell ref="J8:J11"/>
     <mergeCell ref="A1:K1"/>
@@ -1284,6 +1580,11 @@
     <mergeCell ref="G8:G11"/>
     <mergeCell ref="H8:H11"/>
     <mergeCell ref="I8:I11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="H3:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1313,18 +1614,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
